--- a/tests/resources/diff_milestone_data_formats_master_2_2020.xlsx
+++ b/tests/resources/diff_milestone_data_formats_master_2_2020.xlsx
@@ -34,37 +34,37 @@
     <t xml:space="preserve">Apollo 13</t>
   </si>
   <si>
-    <t xml:space="preserve">Assurance MM6</t>
+    <t xml:space="preserve">Assurance MM1</t>
   </si>
   <si>
     <t xml:space="preserve">Gateway Review 5</t>
   </si>
   <si>
-    <t xml:space="preserve">Assurance MM6 LoD</t>
+    <t xml:space="preserve">Assurance MM1 LoD</t>
   </si>
   <si>
     <t xml:space="preserve">(2) IPA Gate 5</t>
   </si>
   <si>
-    <t xml:space="preserve">Assurance MM6 Version No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assurance MM6 Original Baseline</t>
+    <t xml:space="preserve">Assurance MM1 Version No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assurance MM1 Original Baseline</t>
   </si>
   <si>
     <t xml:space="preserve">26/04/2027</t>
   </si>
   <si>
-    <t xml:space="preserve">Assurance MM6 Forecast - Actual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assurance MM6 Status</t>
+    <t xml:space="preserve">Assurance MM1 Forecast - Actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Assurance MM1 Status</t>
   </si>
   <si>
     <t xml:space="preserve">Live</t>
   </si>
   <si>
-    <t xml:space="preserve">Assurance MM6 Notes</t>
+    <t xml:space="preserve">Assurance MM1 Notes</t>
   </si>
   <si>
     <t xml:space="preserve">indicative dates tbc</t>
@@ -228,10 +228,10 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B40" activeCellId="0" sqref="B40"/>
+      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="36.17"/>
   </cols>

--- a/tests/resources/diff_milestone_data_formats_master_2_2020.xlsx
+++ b/tests/resources/diff_milestone_data_formats_master_2_2020.xlsx
@@ -228,7 +228,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A9" activeCellId="0" sqref="A9"/>
+      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/tests/resources/diff_milestone_data_formats_master_2_2020.xlsx
+++ b/tests/resources/diff_milestone_data_formats_master_2_2020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t xml:space="preserve">Assurance MM1 Original Baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TBC</t>
   </si>
   <si>
     <t xml:space="preserve">26/04/2027</t>
@@ -204,7 +207,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -228,10 +231,10 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F18" activeCellId="0" sqref="F18"/>
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="36.17"/>
   </cols>
@@ -294,129 +297,129 @@
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3" t="n">
-        <v>45359</v>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C5" s="3" t="n">
         <v>47178</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="3" t="n">
-        <v>45359</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="C6" s="3" t="n">
         <v>47178</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/tests/resources/diff_milestone_data_formats_master_2_2020.xlsx
+++ b/tests/resources/diff_milestone_data_formats_master_2_2020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -34,22 +34,22 @@
     <t xml:space="preserve">Apollo 13</t>
   </si>
   <si>
-    <t xml:space="preserve">Assurance MM1</t>
+    <t xml:space="preserve">Approval MM1</t>
   </si>
   <si>
     <t xml:space="preserve">Gateway Review 5</t>
   </si>
   <si>
-    <t xml:space="preserve">Assurance MM1 LoD</t>
+    <t xml:space="preserve">Approval MM1 LoD</t>
   </si>
   <si>
     <t xml:space="preserve">(2) IPA Gate 5</t>
   </si>
   <si>
-    <t xml:space="preserve">Assurance MM1 Version No</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assurance MM1 Original Baseline</t>
+    <t xml:space="preserve">Approval MM1 Version No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approval MM1 Original Baseline</t>
   </si>
   <si>
     <t xml:space="preserve">TBC</t>
@@ -58,16 +58,16 @@
     <t xml:space="preserve">26/04/2027</t>
   </si>
   <si>
-    <t xml:space="preserve">Assurance MM1 Forecast - Actual</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Assurance MM1 Status</t>
+    <t xml:space="preserve">Approval MM1 Forecast - Actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approval MM1 Status</t>
   </si>
   <si>
     <t xml:space="preserve">Live</t>
   </si>
   <si>
-    <t xml:space="preserve">Assurance MM1 Notes</t>
+    <t xml:space="preserve">Approval MM1 Notes</t>
   </si>
   <si>
     <t xml:space="preserve">indicative dates tbc</t>
@@ -119,6 +119,27 @@
   </si>
   <si>
     <t xml:space="preserve">Re-baseline HMT benefits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approval MM2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approval MM2 LoD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approval MM2 Version No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approval MM2 Original Baseline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approval MM2 Forecast - Actual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approval MM2 Status</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approval MM2 Notes</t>
   </si>
 </sst>
 </file>
@@ -228,13 +249,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="36.17"/>
   </cols>
@@ -420,6 +441,102 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>47178</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>47178</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/tests/resources/diff_milestone_data_formats_master_2_2020.xlsx
+++ b/tests/resources/diff_milestone_data_formats_master_2_2020.xlsx
@@ -252,10 +252,10 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B38" activeCellId="0" sqref="B38"/>
+      <selection pane="topLeft" activeCell="C45" activeCellId="0" sqref="C45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="36.17"/>
   </cols>
@@ -505,7 +505,7 @@
         <v>10</v>
       </c>
       <c r="C24" s="3" t="n">
-        <v>47178</v>
+        <v>46813</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>11</v>

--- a/tests/resources/diff_milestone_data_formats_master_2_2020.xlsx
+++ b/tests/resources/diff_milestone_data_formats_master_2_2020.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t xml:space="preserve">Project/Programme Name</t>
   </si>
@@ -146,9 +146,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="YYYY\-MM\-DD"/>
+    <numFmt numFmtId="166" formatCode="DD/MM/YY"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -215,7 +216,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -229,6 +230,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -252,10 +257,10 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="58" zoomScaleNormal="58" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C45" activeCellId="0" sqref="C45"/>
+      <selection pane="topLeft" activeCell="H20" activeCellId="0" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="36.17"/>
   </cols>
@@ -338,8 +343,8 @@
       <c r="C6" s="3" t="n">
         <v>47178</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>11</v>
+      <c r="D6" s="4" t="n">
+        <v>46480</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
